--- a/audio/zh/方案四/美食店家/美食問題.xlsx
+++ b/audio/zh/方案四/美食店家/美食問題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\zh\方案四\美食店家\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB38962-C573-4ADF-94ED-7DDFC490BA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA8879A-6FCE-4ED9-BA05-A07818331260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="400">
   <si>
     <t>問題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -781,9 +781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我想常常當地的傳統小吃有沒有值得推薦的餐廳?</t>
-  </si>
-  <si>
     <t>附近有沒有推薦以鴨肉為主的餐廳?</t>
   </si>
   <si>
@@ -799,12 +796,6 @@
     <t>有推薦可以吃到多種口味肉粽的地方或店家嗎?</t>
   </si>
   <si>
-    <t>有推薦可以吃到有特色玩果和豆仔湯的餐廳嗎?</t>
-  </si>
-  <si>
-    <t>想找可以品嘗到道地意面的餐廳 有推薦嗎?</t>
-  </si>
-  <si>
     <t>請問去台南哪家店的肉粽最受歡迎值得一試?</t>
   </si>
   <si>
@@ -820,72 +811,33 @@
     <t>我想找好吃又健康的香腸有推薦的嗎?</t>
   </si>
   <si>
-    <t>請問鹽水區 哪裡可以吃到 道地的義麵或小吃?</t>
-  </si>
-  <si>
     <t>哪裡可以品嘗到傳統糕餅 特別是水果餅</t>
   </si>
   <si>
     <t>哪裡可以找到賣傳統糖果和古早味蜜餞的店家?</t>
   </si>
   <si>
-    <t>我想常常當地有名的包子有沒有可以推薦的店家。</t>
-  </si>
-  <si>
     <t>可以推薦幾家受歡迎的傳統餅舖及值得嘗試的特色伴手禮嗎?</t>
   </si>
   <si>
     <t>我想找可以喝到獨特口味的紅茶店 有推薦嗎?</t>
   </si>
   <si>
-    <t>請問哪裡可以買到 道地的古早味冰棒?</t>
-  </si>
-  <si>
-    <t>在台南有哪裡可以吃到蝦仁肉圓?</t>
-  </si>
-  <si>
     <t>這次來台南想找有Q彈丸果的餐廳 可以推薦嗎?</t>
   </si>
   <si>
-    <t>可以推薦一家在地人喜愛的米糕或根湯店嗎?</t>
-  </si>
-  <si>
-    <t>我沒有餐廳賣燒牌砂鍋鴨。</t>
-  </si>
-  <si>
-    <t>哪裡可以吃到好吃的傳統甜品?有推薦的店嗎?</t>
-  </si>
-  <si>
-    <t>台南玩的時候 哪裡可以吃到好吃的手工甜品</t>
-  </si>
-  <si>
-    <t>這哪裡可以找到當天現做的滷味店?</t>
-  </si>
-  <si>
-    <t>來談談旅遊有沒有推薦的義麵或鱔魚餐廳可以去吃看看。</t>
-  </si>
-  <si>
     <t>請問有推薦可以吃到新鮮海鮮料理的餐廳嗎?</t>
   </si>
   <si>
-    <t>有沒有推薦可以品嘗到天然特色甜點的店家?</t>
-  </si>
-  <si>
     <t>請問這附近有可以吃到用新鮮水果做的甜點嗎?</t>
   </si>
   <si>
-    <t>請問在這附近哪裡可以買到米漬或蓮子相關的伴手禮或小吃?</t>
-  </si>
-  <si>
     <t>請問在附近哪裡可以買到有特色的雞蛋產品?</t>
   </si>
   <si>
     <t>請問這裡附近可以品嘗到優質的咖啡嗎?</t>
   </si>
   <si>
-    <t>問在當地有什麼以米產品為主的特色店家 值得推薦嗎?</t>
-  </si>
-  <si>
     <t>想找一家專賣傳統中式糕點的店,你有推薦嗎?</t>
   </si>
   <si>
@@ -898,72 +850,15 @@
     <t>請問在傳統市場有什麼當地特色零食值得推薦嗎?</t>
   </si>
   <si>
-    <t>推薦幾家在地口碑好又經營已久的水果店讓我去逛逛嗎?</t>
-  </si>
-  <si>
-    <t>我來這裡旅遊香召幾家有特色的鹹州餐廳可以推薦嗎?</t>
-  </si>
-  <si>
-    <t>請問在台南還有哪些百年老爺號的小吃店可以推薦嗎?</t>
-  </si>
-  <si>
-    <t>附近有推薦的特色小吃點嗎?</t>
-  </si>
-  <si>
-    <t>請問這附近有哪幾家專賣米糕的傳統小吃點可以推薦給我嗎?</t>
-  </si>
-  <si>
-    <t>男女有香皂 適合全家聚餐的魚碗餐廳可以推薦嗎?</t>
-  </si>
-  <si>
-    <t>台南香蕉老字號的西點專賣蛋糕或麵包有推薦的嗎?</t>
-  </si>
-  <si>
     <t>在台南哪裡可以吃到像花生冷湯這種古早味糖品嗎?</t>
   </si>
   <si>
-    <t>我可以去哪裡買到台灣特產蜜餞?</t>
-  </si>
-  <si>
-    <t>請問有推薦的手購餅鋪可以買到好吃的肉包和糕點嗎?</t>
-  </si>
-  <si>
-    <t>哪裡可以買到像黑糖香餅這種傳統特色糕點嗎?</t>
-  </si>
-  <si>
     <t>請問這附近有沒有推薦的傳統手作和素食點心店家呢?</t>
   </si>
   <si>
     <t>香皂又不添加化學成分冬瓜茶的店要去哪裡?</t>
   </si>
   <si>
-    <t>到台南哪裡可以品嘗到百年老爺的秘簡。</t>
-  </si>
-  <si>
-    <t>不好意思請問這附近哪裡可以買到限量的傳統糕點呢?</t>
-  </si>
-  <si>
-    <t>我是觀光客 想找有歷史的 茶行要去哪裡比較好呢?</t>
-  </si>
-  <si>
-    <t>請問台南有沒有像樣的老字號茶莊可以去體驗 穿通茶文化的地方呢?</t>
-  </si>
-  <si>
-    <t>在台南有沒有其他老字號的茶妝可以推薦我去參觀呢?</t>
-  </si>
-  <si>
-    <t>在台南有沒有結合傳統建築又能平常在地小吃的好去處呢?</t>
-  </si>
-  <si>
-    <t>我想常常有名的蝦人飯 請問在台南還有哪些地方可以找到類似的美食呢?</t>
-  </si>
-  <si>
-    <t>我想在台南四四傳統肉中還有其他人 戲店家可以推薦嗎?</t>
-  </si>
-  <si>
-    <t>我在旅行想找能深金子殼的在地特色飲品有推薦嗎?</t>
-  </si>
-  <si>
     <t>請問哪裡有以新鮮海鮮為主要特色的餐廳可以推薦嗎?</t>
   </si>
   <si>
@@ -979,42 +874,18 @@
     <t>請問來台南有什麼推薦的伴手禮盒在地特色水果可以帶回去嗎?</t>
   </si>
   <si>
-    <t>除了這裡還有其他地方可以買到健康的蝦餅嗎?</t>
-  </si>
-  <si>
-    <t>請問這附近還有哪裡可以買到手工餅乾或伴手禮嗎?</t>
-  </si>
-  <si>
-    <t>那裡可以找到口感很好的麻薯和大福麻</t>
-  </si>
-  <si>
     <t>來台南玩哪裡有好吃的滑嫩豆花可以推薦嗎?</t>
   </si>
   <si>
-    <t>在旅途中想吃口感獨特的米糕 可以</t>
-  </si>
-  <si>
     <t>請問我可以在哪裡找到甜點不佳、水、口感更濃厚的餐廳?</t>
   </si>
   <si>
-    <t>問哪裡有提供套餐的 複合式餐飲店可以推薦嗎?</t>
-  </si>
-  <si>
-    <t>我正在找平家又好吃的肉燒飯或肉燒麵 可以去哪裡吃嗎?</t>
-  </si>
-  <si>
     <t>我想找使用傳統工法製作的包子 請問有推薦的店家嗎?</t>
   </si>
   <si>
     <t>請問有推薦可以在咖啡園區一邊喝咖啡欣賞美景並享用美食的地方嗎?</t>
   </si>
   <si>
-    <t>在台南旅遊 香蕉以鱒魚料理為主的小吃店有推薦嗎?</t>
-  </si>
-  <si>
-    <t>第一次來台南請問哪裡有便宜又好吃的小吃可以推薦?</t>
-  </si>
-  <si>
     <t>請問在這附近哪裡可以吃到口味獨特的意麵和滷味嗎?</t>
   </si>
   <si>
@@ -1027,358 +898,475 @@
     <t>我到台南旅遊 想找好吃的小籠包或中式小草 可以去哪裡呢?</t>
   </si>
   <si>
-    <t>問有沒有推薦可以吃到新鮮自製料理又有自助餐的餐體嗎?</t>
-  </si>
-  <si>
-    <t>在台南哪裏有風格獨特又氛圍舒適的咖啡店可以推薦的嗎?</t>
-  </si>
-  <si>
-    <t>我在旅行 想找一家能讓我放鬆又能品嘗特色飲品的咖啡館 請問有推薦的嗎?</t>
-  </si>
-  <si>
     <t>我在台南旅遊想找可以喝到現泡咖啡。又有三明治搭配的咖啡店有哪些?</t>
   </si>
   <si>
     <t>請問在南區有沒有可以坐下來享用多種飲品和餐點的咖啡店推薦嗎?</t>
   </si>
   <si>
-    <t>請問在台灣想吃像蛋仔麵的傳統小吃可以去哪裡?</t>
-  </si>
-  <si>
     <t>除了江川肉燥飯之外,我還能去哪裡吃到好吃的肉燥飯?</t>
   </si>
   <si>
-    <t>我第一次來台南想找好吃的鎖魚店 可以推薦幾家嗎?</t>
-  </si>
-  <si>
-    <t>南有沒有像香腸和冷食這類的傳統小吃可以推薦的地方嗎?</t>
-  </si>
-  <si>
-    <t>到台南想吃晚貴那種經典米食 有什麼推薦的嗎?</t>
-  </si>
-  <si>
-    <t>來台南有沒有推薦的 有名羹類料理或熱門吃的地方可以介紹</t>
-  </si>
-  <si>
     <t>請問在台南哪裡可以吃到有懷舊氛圍的特色玩果嗎?</t>
   </si>
   <si>
-    <t>台南想吃道地的米食和傳統湯品 有什麼推薦的店家嗎?</t>
-  </si>
-  <si>
     <t>請問哪裡可以找到好吃的滷麵或傳統米糕?</t>
   </si>
   <si>
     <t>想請問附近有沒有好吃又健康的燒肉飯 可以推薦的嗎?</t>
   </si>
   <si>
-    <t>在台南有米其林推薦的店家嗎? 特別是賣米糕的</t>
-  </si>
-  <si>
-    <t>在台南旅行 想請問哪裡可以吃到當地受歡迎的虱目魚料理?</t>
-  </si>
-  <si>
-    <t>問哪裡的肉園比較特別或有特色值得我去嘗嘗的嗎?</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間距離飯店不遠的在地美食，讓您一次滿足！卓仔麵店約500公尺，以手工麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。西羅殿牛肉湯約1000公尺，是米其林必比登推薦的牛肉湯店，主打新鮮溫體牛肉。黃家蝦捲約1.0公里，傳承五十年的經典蝦捲和魚丸脆肉湯，也十分推薦！</t>
-  </si>
-  <si>
-    <t>您好，附近有幾家以鴨肉料理聞名的餐廳，讓您一次滿足！饗食天堂(台南西門店)約3.3公里，以每月更新菜色、草蝦天婦羅、鹽烤鮮蚵等特色菜色受到歡迎。俊吉當歸鴨則約5.1公里，專注於當歸鴨料理，招牌菜當歸鴨肉麵線深受食客喜愛。另外，籃記東山鴨頭約6.5公里，以獨特古法滷製的鴨舌、鴨脖子、鴨頭聞名，口味獨特，經常人潮眾多。</t>
-  </si>
-  <si>
-    <t>您好，觀光客您好！想找新口味滷味，我推薦您卓仔麵店，距離這裡約500公尺，以紅燒牛肉麵和榨菜麵聞名，口味獨特，非常受顧客喜愛。另外，輝哥本產牛肉爐距離這裡約3.6公里，以濃郁的牛肉火鍋湯頭和新鮮的溫體牛肉聞名，也是不錯的選擇。古都碗粿東門總店則距離這裡約3.6公里，提供綿密滑順的碗粿，讓您體驗道地的南部風味。</t>
-  </si>
-  <si>
-    <t>您好，附近有幾家不錯的選擇，牛の屋距離約1.5公里，以嚴選牛肉聞名，推薦您品嚐「はみ出しサガリ」或「牛舌拼盤」；老鄧牛肉麵則距離約3.4公里，是台南水交社的代表，半筋半肉牛肉麵和滷牛筋非常受歡迎；另外，家屋簡餐距離約3.6公里，提供香草牛奶鍋等舒適的簡餐體驗。</t>
-  </si>
-  <si>
-    <t>您好，想請問您想吃麵食嗎？推薦您到安徒生咖啡館，距離這裡約9.8公里，店內有提供紅燒豬腳飯套餐，搭配濃郁的咖啡，非常美味。另外，阿興168燻茶鵝距離約35.7公里，以獨特的燻茶鵝聞名，肉質鮮嫩，都是不錯的選擇。</t>
-  </si>
-  <si>
-    <t>您好，推薦您嚐嚐附近的三家肉粽店家，再發號肉粽約3.8公里，是歷史悠久的台南老店，八寶肉粽非常受歡迎；品香肉粽則在3.7公里處，以月桃葉包製肉粽聞名，口味獨特；牛稠埔肉粽約11.5公里，是道地的南部粽。您可以依照個人喜好選擇喔！</t>
-  </si>
-  <si>
-    <t>您好，當然有！推薦您品嚐小西腳碗粿，距離這裡約23.6公里，是台南老字號，自民國四十一年創立，以香Q的碗粿和濃郁的豆仔湯聞名，店內堅持使用100%台灣米，搭配新鮮配料，讓您一嚐道地的家鄉味道。營業時間為週一至週日09:00-18:30，週三公休。</t>
-  </si>
-  <si>
-    <t>您好，想品嚐道地意面，我推薦您卓仔麵店，距離這裡約500公尺，以手工現做的麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。另外，西羅殿牛肉湯距離約1000公尺，也是米其林必比登推薦的牛肉湯店，主打新鮮的台灣溫體牛肉，口味絕佳。黃家蝦捲則距離約1公里，以酥脆的蝦捲和魚丸脆肉湯聞名。</t>
-  </si>
-  <si>
-    <t>您好，推薦您嚐嚐台南的肉粽，距離這裡約3.3公里的是楊哥楊嫂肉粽店，開業四十多年，是老店，招牌的「狀元粽」和可愛的小肉粽非常受歡迎，還有3.7公里距離的品香肉粽，以月桃葉包製肉粽聞名，內餡豐富，另外3.8公里距離的再發號肉粽，開業於1872年，八寶肉粽更是經典！</t>
-  </si>
-  <si>
-    <t>您好，推薦您嚐嚐距離約4.7公里東悅坊，以其掛爐烤鴨三吃聞名，是港式美食好去處，建議您提前預訂。另外，距離約7.7公里的阿三意麵，也是老字號，乾意麵搭配肉燕酥非常美味，建議避開尖峰時段。若您想體驗懷舊滋味，距離約42.4公里的華味香鴨肉羹新進店，鴨肉羹湯頭鮮甜，也值得一試。</t>
-  </si>
-  <si>
-    <t>您好，當然！台南有許多結合自然美景與美食的餐廳，非常適合您享受悠閒時光。推薦您「大鋤花間」，距離約3.6公里，提供咖啡果露雞湯火鍋等美味餐點，並有舒適的環境和友善的貓咪陪伴。另外，「烏山咖啡」距離約2.6公里，擁有壯麗的台南市全景，也是不錯的選擇。如果您喜歡咖啡公路的氛圍，「柑園咖啡」約52.4公里，同樣提供自產咖啡及水果，讓您盡情享受農夫樂趣與美食饗宴。</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間距離老爺行旅不遠的冰品店推薦給您喔！南方澳芋冰城約3.1公里，是老爺附近非常受歡迎的芋冰店，提供古早味芋冰和創意冰淇淋蛋糕，讓您重溫童年回憶。另外，善化糖廠門市部約3.4公里，以紅豆牛奶冰和核桃系列冰品聞名，還有親水公園的伴手禮。若您喜歡懷舊風味，南風冰菓室約3.6公里，四菓冰、漢堡冰等都是熱門選擇。</t>
-  </si>
-  <si>
-    <t>您好，想找好吃又健康的香腸，推薦您到距離飯店約2.5公里處的鬍鬚豬頭飯，以獨特的豬頭飯和香腸聞名，價格實惠，非常適合您嚐鮮！距離約2.5公里，營業時間為週一至週日09:00–19:30。</t>
-  </si>
-  <si>
-    <t>您好，歡迎光臨臺南老爺行旅！想吃道地小吃，推薦您到柳營區農會田媽媽（distance_m: 80），這裡有專注於鮮奶產品的手工製作，鮮奶饅頭和包子口感柔軟，非常受顧客喜愛。另外，您也可以考慮前往穀倉餐廳（distance_m: 42.7），麻油雞鍋是必嚐美食。如果您喜歡自助餐，饗食天堂（distance_m: 3.3）也是不錯的選擇！</t>
-  </si>
-  <si>
-    <t>您好，想品嚐傳統糕餅，特別是水果餅，這裡有幾個不錯的選擇喔！距離這裡約4.4公里的是泰香餅舖水果餅，這家店有百年歷史，以獨特的水果餅聞名，口感酥脆，深受顧客喜愛。另外，您也可以考慮明新食品-歸仁店，距離約3.7公里，他們也有虱目魚Q餅，口味也很棒喔！營業時間都是週一至週日09:00至21:00。</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間推薦給您，讓您盡情享受台南的傳統滋味！距離老爺行旅約32.6公里的是美勝珍蜜餞，他們是一家擁有超過70年歷史的蜜餞老店，熱門推薦愛文芒果乾、爆漿金桔，營業時間週一至週日11:00–23:00。另外，距離約3.7公里的寶來香餅鋪，則有百年歷史的古早味糕餅店，招牌香餅和蒜茸枝深受顧客喜愛，營業時間週二至週日08:30-15:30。還有距離3</t>
-  </si>
-  <si>
-    <t>您好，台南有許多美味的包子店，距離這裡分別為約2.3公里，推薦您到安平阿水伯手工包子品嚐，他們以傳統手工製作聞名，堅持不添加防腐劑，並以老麵發酵，包子皮Q彈、內餡豐富，特別推薦其招牌蛋黃香菇肉包和黑糖麻糬包。另外，您也可以考慮克林台包，距離約4.3公里，是台南老字號包子店，以八寶肉包聞名。若您想體驗酪農樂趣，八老爺車站-乳牛的家，距離約3.2公里，也是</t>
-  </si>
-  <si>
-    <t>您好，當然可以！這裡有幾家受歡迎的傳統餅舖推薦給您，讓您在台南盡情享受在地美食。距離飯店約49.6公里的是「舊來發餅舖」，以百年歷史的黑糖香餅聞名，口感外酥內Q，非常受顧客喜愛。另外，距離約4.7公里的「舊永瑞珍喜餅」也是傳統喜餅的代表，招牌烏豆沙核桃和柴梳餅都值得品嚐。還有距離3.7公里的「寶來香餅鋪」，以古早味香餅和蒜茸枝深受喜愛。</t>
-  </si>
-  <si>
-    <t>您好，想喝獨特口味的紅茶，我推薦您到距離飯店約1.8公里的新鳳鳴茶業有限公司，他們專注於台灣高山茶製作，冷泡茶系列非常受歡迎，而且他們有四代茶葉製作經驗，品質也通過了ISO 22000與HACCP認證，您可以嚐嚐桂花烏龍、玫瑰綠茶等口味喔！另外，飯店附近還有榮興水果店，距離約2.3公里，以水果和冰品聞名，讓您在炎炎夏日也能消暑。</t>
-  </si>
-  <si>
-    <t>您好，想吃道地的古早味冰棒，我推薦您可以到順天冰棒，距離這裡約5.1公里，是台南老字號冰品店，以米糕冰棒、花生牛奶和李鹹口味聞名，已經超過60年的歷史喔！另外，善化糖廠門市部距離約3.4公里，也有紅豆牛奶冰等美味選擇。如果您想體驗農村風情，善化農會冰品休閒中心則距離約15.5公里。</t>
-  </si>
-  <si>
-    <t>您好，想吃蝦仁肉圓嗎？推薦您到安平貴記美食文化館（距離約3.1公里），這裡有鼎邊趖、蝦仁肉圓、芋粿等道地小吃，非常適合初次品嚐台南美食。另外，友誠蝦仁肉圓（距離約3.4公里）也是老字號店家，蝦仁肉圓外皮軟糯，內餡豐富，還有虱目魚丸湯等美味菜色。安南區東香台菜海鮮餐廳（距離約7.3公里）也提供傳承的台菜風味和新鮮海鮮喔！</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦台南美食！如果您喜歡Q彈的麵點，可以考慮以下幾間店家。距離飯店約1.1公里的是府城食府，以擔仔麵、八寶丸及虱目魚粥聞名，是台南小吃的絕佳選擇。另外，距離約3.7公里的是明新食品-歸仁店，提供創新的虱目魚Q餅，口感Q彈，非常推薦！還有距離約11.7公里的台南桂田酒店，馥桂蘭熏餐廳的招牌豆沙包也頗受顧客喜愛喔。</t>
-  </si>
-  <si>
-    <t>您好，當然可以！老爺行旅很樂意為您推薦在地人喜愛的米糕或根湯店。阿霞飯店距離約3.4公里，是台南老字號餐廳，招牌的「紅蟳米糕」非常受歡迎，搭配其他經典台菜，絕對能滿足您的味蕾。另外，東東宴會式場-永大幸福館距離約2.6公里，也有提供美味的米糕選項喔！</t>
-  </si>
-  <si>
-    <t>台南老爺行旅的您，想找燒牌砂鍋鴨嗎？距離這裡約4.7公里，鴻品牛肉湯以新鮮現宰的牛肉和清甜的湯頭聞名，極品牛肉湯和人氣牛肉爐都是不錯的選擇。另外，距離約42.4公里的華味香鴨肉羹新進店，以60多年歷史的古早味鴨肉羹聞名，鴨肉軟嫩深受好評，營業時間至週日10:00-20:30，無需預約。距離約7.7公里的阿三意麵，則有獨特的鹽水意麵和肉燕酥，營業時間</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間推薦的傳統甜品店，讓您在台南老爺行旅的附近盡情享受！首先是甜園飲冰室，約47.5公里，是一家自1981年以來深受喜愛的老冰店，提供新鮮當季水果冰和自選配料的八寶冰，CP值高喔！另外，您也可以考慮寶來香餅鋪，約3.7公里，這裡有百年歷史的傳統糕餅店，招牌香餅和蒜茸枝非常受歡迎。還有世芳軒花生糖，麻花捲，約3.1公里，是百年老店，口味多樣，讓您回味</t>
-  </si>
-  <si>
-    <t>您好，台南有許多美味的手工甜品，推薦您可以考慮前往距離約3.3公里處的饗食天堂(台南西門店)，這裡的招牌菜如草蝦天婦羅和鹽烤鮮蚵非常受歡迎。另外，距離約4.1公里處的修安扁擔豆花，以手工製作的古早味豆花聞名，口味獨特。如果喜歡咖啡甜點，距離約7.6公里處的甜在心咖啡館，提供舒適的氛圍和美味的麵包特餐喔！</t>
-  </si>
-  <si>
-    <t>您好，附近有卓仔麵店，約500公尺，以每日手工現作的麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。另外，古都碗粿東門總店也在3.6公里處，是台南傳統美食代表喔！輝哥本產牛肉爐則約3.6公里，以濃郁的牛肉火鍋聞名。</t>
-  </si>
-  <si>
-    <t>您好，台南美食推薦絕對不能少鱔魚和麵類！附近阿輝炒鱔魚距離約3.6公里，是經營超過50年的老店，乾炒鱔魚意麵非常受歡迎。另外，距離約4.2公里的赤崁棺材板，也是台南老字號，招牌的棺材板口味獨特。阿霞飯店距離約3.4公里，也有紅蟳米糕等經典台菜可供選擇，都是您在台南的美味體驗！</t>
-  </si>
-  <si>
-    <t>您好，當然有！這裡有幾間推薦，讓您盡情享受新鮮海鮮料理。距離這裡約15公里的是「三股海鮮麵」，是當地老店，以虱目魚為特色，口味鮮美，深受食客喜愛。另外，距離約30.3公里的「新萬香餐廳」也是不錯的選擇，以白鯧魚米粉聞名，適合家庭聚餐。如果想體驗異國風情，距離4公里「Kaluwa 泰式音樂餐廳」也有美味的泰式料理喔！</t>
-  </si>
-  <si>
-    <t>您好，想找天然特色甜點，推薦您窄門咖啡館，距離約1.8公里，店內有手工瑪德蓮，是個適合拍照打卡的隱藏寶地。另外，饗食天堂(台南西門店)距離約3.3公里，每月菜色更新，也有美味的起士蛋糕。轉角餐廳 Corner Steak House 距離約3.2公里，雖然以牛排聞名，但也有精緻的甜點喔！</t>
-  </si>
-  <si>
-    <t>您好，這附近有幾家推薦的店家，讓您能享受新鮮水果的甜點！窄門咖啡館距離約1.8公里，以其獨特的38公分入口和復古氛圍聞名，提供窄門特調冰咖啡、起士蛋糕及手工瑪德蓮等甜點。榮興水果店則距離約2.3公里，是老字號水果店，有精選水果盤和冰品。另外，烏山咖啡距離約2.6公里，環境獨特，提供香醇的咖啡及新鮮蔬果汁。</t>
-  </si>
-  <si>
-    <t>您好，這裡附近有幾家不錯的店家可以推薦給您！楊哥楊嫂肉粽店約3.3公里，是台南老店，招牌的「狀元粽」非常受歡迎，還有可愛的小肉粽。另外，蓮圃園蓮產品DIY觀光工廠約3.6公里，提供多樣化的無麵粉米製品，讓您親自體驗製作過程。品香肉粽約3.7公里，以月桃葉包製肉粽聞名，口味獨特。</t>
-  </si>
-  <si>
-    <t>您好，附近有幾家特色店家推薦給您喔！泉威布丁豆花距離約2.0公里，店家的營業時間為星期一至五08:00-17:00，星期六08:00-12:00，店家的營業時間為60年歷史，以經典三色布丁豆花及四色布丁豆花聞名。另外，清珠布丁豆花距離約2.3公里，營業時間為星期一至六10:00-19:00，星期日10:00-18:00，店家的營業時間為30年歷史，以</t>
-  </si>
-  <si>
-    <t>您好，這裡附近有許多不錯的咖啡店可供選擇。推薦您到距離約1.8公里、獨具特色的窄門咖啡館，店內以38公分寬的入口和復古懷舊氛圍聞名，提供窄門特調冰咖啡、起士蛋糕等美味甜點，讓您享受時光。另外，距離約2公里、營業至今已60年的泉威布丁豆花，也是不錯的選擇，您可以品嚐到傳統口味的豆花。距離約1.2公里的街役場古蹟餐坊，也有提供各式咖啡。</t>
-  </si>
-  <si>
-    <t>您好，飯店附近有幾家以米製品聞名的店家，您可以到南紡購物中心內的米鄉米食館，品嚐各式米食料理，或是到老街尋找傳統米食店家，都有不錯的選擇喔！</t>
-  </si>
-  <si>
-    <t>您好，想找傳統中式糕點，我推薦您到距離這裡約3.7公里處的寶來香餅鋪，距離約3.7公里。這家店是百年歷史的傳統糕餅店，專注於手工製作各式古早味點心，特別推薦其招牌香餅和蒜茸枝，店內環境雖小，但琳瑯滿目的糕餅種類絕對能滿足喜愛傳統美食的食客，建議您可以搭配逛水仙宮市場行程，體驗台南的古早味喔！</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間推薦給您！卓仔麵店距離這裡約500公尺，以手工麵和紅燒牛肉麵、榨菜麵聞名，非常美味。另外，古都碗粿東門總店約3.6公里，是台南傳統美食，碗粿內餡豐富，搭配浮水魚羹和肉燥飯，都是不錯的選擇。輝哥本產牛肉爐則約3.6公里，以濃郁的牛肉火鍋聞名，適合與家人朋友一同享用。</t>
-  </si>
-  <si>
-    <t>您好，這附近有許多美味的手工點心，推薦您到安平阿水伯手工包子（distance_m: 2300），約2.3公里，以傳統手工製作聞名，包子皮Q彈，內餡豐富，特別推薦招牌蛋黃香菇肉包。另外，您也可以考慮大鋤花間（distance_m: 3600），約3.6公里，結合自然美景與有機咖啡，還有寶來香餅鋪（distance_m: 3700），約3.7公里，百年歷史的糕餅店，香餅和蒜茸枝都非常受歡迎！</t>
-  </si>
-  <si>
-    <t>您好，歡迎光臨台南老爺行旅！附近有許多特色美食，推薦您前往約18.6公里外的黑橋牌香腸博物館，它是一個結合文化教育與美食體驗的觀光工廠，免費參觀且設有豐富的歷史展示，特別適合親子家庭。館內的香腸製作過程與復古場景讓人流連忘返，必嚐的巨無霸夯香腸更是遊客的最愛。</t>
-  </si>
-  <si>
-    <t>您好，推薦您到榮興水果店（distance_m: 2300），它是一家擁有70年歷史的老字號水果店，水果品質優良，深受顧客喜愛。另外，窄門咖啡館（distance_m: 1800）也是一個很棒的選擇，店內充滿復古懷舊氛圍，適合拍照打卡，還有窄門特調冰咖啡等美味甜點。如果您想欣賞風景，烏山咖啡（distance_m: 2600）則是一個不錯的選擇，環境獨特，還能品嚐到新鮮的樹葡萄汁。</t>
-  </si>
-  <si>
-    <t>您好，歡迎光臨老爺行旅！附近有幾家特色鹹食推薦，您可以參考看看。卓仔麵店約500公尺，以手工現做麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。西羅殿牛肉湯約1000公尺，是米其林必比登推薦的台南老字號牛肉湯店，主打新鮮溫體牛肉。黃家蝦捲約1.0公里，傳承五十年的經典小吃，蝦捲酥脆，魚丸脆肉湯也別具風味。</t>
-  </si>
-  <si>
-    <t>您好，台南老爺行旅附近有許多百年老店，推薦您嚐嚐卓仔麵店，約500公尺，以手工現做麵條聞名，紅燒牛肉麵和榨菜麵都是招牌美食。另外，西羅殿牛肉湯約1000公尺，是米其林必比登推薦的台南老字號牛肉湯店，主打新鮮溫體牛肉。黃家蝦捲約1公里，則以酥脆蝦捲和魚丸脆肉湯聞名。</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間特色小吃推薦給您喔！距離這裡約1.1公里的是府城食府，以正宗台南料理聞名，擔仔麵、八寶丸等都是必嚐；另外，距離約2.6公里的庫肯花園餐廳，環境優雅，適合聚餐，推薦和風明太子花枝細扁麵和惡魔巧克力蛋糕；還有距離44.5公里的蔡家米糕，是歷史悠久的米糕老店，米糕飯和排骨酥湯非常受歡迎。</t>
-  </si>
-  <si>
-    <t>您好，這附近米糕的傳統小吃推薦您可至東東宴會式場-永大幸福館（distance_m: 2.6公里），他們有提供經典的紅蟳米糕，口味非常棒！另外，阿霞飯店（distance_m: 3.4公里）也有提供紅蟳米糕，都是很受歡迎的選擇喔。善化糖廠門市部（distance_m: 3.4公里）雖然以冰品聞名，但也有提供米糕點心。</t>
-  </si>
-  <si>
-    <t>您好，想請問您適合全家聚餐的魚碗餐廳，推薦您可以考慮東悅坊，距離約4.7公里，以掛爐烤鴨三吃聞名，環境舒適，適合聚餐，建議您提前預訂。另外，您也可以考慮田媽媽長盈海味屋，距離約54.8公里，以新鮮虱目魚料理聞名，連續多年獲得米其林必比登推薦，口味獨特，非常適合全家大小人一同享用。</t>
-  </si>
-  <si>
-    <t>您好，歡迎光臨台南老爺行旅！附近有幾家特色店家推薦給您。窄門咖啡館距離約1.8公里，是個充滿復古氛圍的拍照打卡點，推薦窄門特調冰咖啡及手作甜點。泉威布丁豆花則距離約2.0公里，是傳承60年歷史的豆花專賣店，口味豐富。另外，庫肯花園餐廳距離約2.6公里，提供精緻的歐式料理，適合聚餐。</t>
-  </si>
-  <si>
-    <t>您好，想找像花生仁湯這種古早味糖品，這裡有幾間推薦喔！莊子土豆仁湯距離約49.0公里，是專注於古早味台式甜湯的餐飲店，招牌花生仁湯可調整甜度，搭配多種配料，非常受顧客喜愛。南風冰菓室距離約3.6公里，提供懷舊風味的四菓冰等冰品，而舊振南台南旗艦店則距離約7.9公里，結合東方餅藝文化，提供創新迷你漢餅下午茶組合。</t>
-  </si>
-  <si>
-    <t>您好，推薦您到臺南府城吳萬春蜜餞（距離約1.6公里），這裡有近150種蜜餞選擇，特別是大湖草莓乾和香菇脆片非常受歡迎！另外，美勝珍蜜餞（距離約32.6公里）的芒果乾系列和爆漿金桔也都是熱門商品。如果您喜歡鳳梨酥，也可以考慮楊媽媽菓子工坊（距離約26.1公里），他們家的米麩金饌鳳梨酥更是總統指定伴手禮喔！</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間推薦給您喔！安平阿水伯手工包子距離約2.3公里，以傳統手工製作聞名，包子皮Q彈，內餡豐富，招牌蛋黃香菇肉包非常受歡迎。另外，寶來香餅鋪距離約3.7公里，是百年歷史的糕餅店，香餅和蒜茸枝都是經典之作。明新食品-歸仁店距離約3.7公里，也有台南古早味肉包，讓您一次滿足各種美食需求！</t>
-  </si>
-  <si>
-    <t>您好，台南老爺行旅的AI禮賓推薦您到附近品嚐傳統糕點，安平阿水伯手工包子距離約2.3公里，以手工製作聞名，招牌蛋黃香菇肉包和黑糖麻糬包非常受歡迎。另外，寶來香餅鋪距離約3.7公里，百年歷史的糕餅店，香餅和蒜茸枝都是經典選擇。若想品嚐更古老的傳統，舊來發餅舖距離約49.6公里，百年老店的黑糖香餅更是必嚐！</t>
-  </si>
-  <si>
-    <t>您好，這附近有幾家推薦的店家，讓您一次滿足！距離這裡約4.3公里的是千香麥香雞專賣店，以麥香雞和Q軟蛋餅聞名，營業時間為星期一至星期六05:40-12:00，生意興隆常有排隊人潮。另外，距離約3.1公里的世芳軒花生糖、麻花捲，是百年老店，提供多樣傳統糕點選擇。若您喜歡早午餐，距離約3.8公里的伊莉的店慶中街店，也有美味的法式薄餅和手調咖啡喔！</t>
-  </si>
-  <si>
-    <t>您好，想找無添加冬瓜茶的店家，我推薦您近距離的「冬瓜寶冬瓜茶冷飲專賣店」，距離約3.5公里，營業時間為每日09:00-22:00，提供冬瓜波奶、冬瓜山粉圓、冬瓜粉條等美味飲品，Google評分約3.9顆星。另外，距離約54.2公里的「義豐冬瓜茶」也是不錯的選擇，以冬瓜茶磚及冬瓜塊聞名。若您喜歡古早味，距離約12.3公里的「新順發行」也值得一試，以麥芽</t>
-  </si>
-  <si>
-    <t>您好，感謝您的詢問。目前本館五樓的甘粹餐廳提供早餐，選項包含西式和素食，您可以品嚐到我們的秘簡喔。</t>
-  </si>
-  <si>
-    <t>您好，想找限量的傳統糕點，推薦您到寶來香餅鋪，距離這裡約3.7公里，是一家擁有百年歷史的傳統糕餅店，專注於手工製作各式古早味點心，特別推薦其招牌香餅和蒜茸枝，讓人回味無窮。店內環境雖小，但琳瑯滿目的糕餅種類，絕對能滿足喜愛傳統美食的食客。營業時間為週二至週日08:30-15:30，週一休息。您也可以搭配逛水仙宮市場行程，體驗台南的古早味。</t>
-  </si>
-  <si>
-    <t>您好，觀光客您好！想找有歷史的茶行，這裡有幾個推薦給您喔！距離這裡約4.9公里的是金德春老茶莊，擁有百年歷史，可以品嚐到珍貴的百年老茶甕，非常特別。另外，慶瑞茶莊約15.2公里，也是百年老店，以茶文化和點心聞名，店內還保存了日治時代的茶具。若您喜歡欣賞風景，老鄉長景觀餐廳約41.3公里，環境優美，可以搭配餐點一同享用。</t>
-  </si>
-  <si>
-    <t>您好，台南有幾家歷史悠久的茶莊，非常適合您體驗茶文化！距離這裡約4.9公里的是金德春老茶莊，擁有百年歷史的大茶甕，是品嚐高山茶的絕佳選擇。另外，距離約4.7公里的雙全紅茶，則是一家專注於古早味紅茶的老店，提供多種茶飲選擇。若您對茶文化有更深入的興趣，可以考慮前往距離7.0公里的文峰茶莊，這裡有豐富的茶具文物，讓您更了解台南的茶文化。</t>
-  </si>
-  <si>
-    <t>您好，台南有許多歷史悠久的茶行，非常適合您來探索。距離這裡約1.6公里的是振發茶行，是台南最古老的茶行之一，保留了超過150年的歷史風貌，提供手工包裝的茶葉，讓您感受濃厚的歷史氛圍。另外，距離這裡約4.7公里的是雙全紅茶，是台南老字號茶行，提供冷、溫、熱三種飲品選擇，讓您品嚐到濃郁的茶香。若想體驗百年歷史，距離這裡約4.9公里的是金德春老茶莊，擁有百年歷史的大茶甕，是品茶愛好</t>
-  </si>
-  <si>
-    <t>您好，台南有許多結合傳統建築與在地小吃的美味店家喔！距離這裡約500公尺的卓仔麵店，以手工麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。另外，距離約1000公尺的西羅殿牛肉湯，也是米其林必比登推薦，主打新鮮溫體牛肉，湯頭鮮美。若想品嚐經典台南小吃，距離約1公里黃家蝦捲也是不錯的選擇，酥脆蝦捲和魚丸脆肉湯都非常美味。</t>
-  </si>
-  <si>
-    <t>您好，想找類似蝦人飯的店家，推薦您可以考慮台南蔡虱目魚專賣店，距離這裡約4.6公里，提供綜合虱目魚湯及虱目魚肚等美味料理，營業時間為週一至週日10:30-22:00。另外，府城食府距離約1.1公里，以擔仔麵、八寶丸等台南小吃聞名，適合家庭聚餐。如果您喜歡粵式海鮮，則可以考慮台南桂田酒店的「馥桂蘭熏」餐廳，距離約11.7公里，提供各式點心與海鮮料理。</t>
-  </si>
-  <si>
-    <t>您好，想請問您在台南四四傳統市場附近，推薦的店家有寶芝林燻茶鵝，距離約2.7公里，以蜂蜜汁燻茶鵝聞名，肉質鮮嫩，香氣四溢，店內僅提供外帶服務。另外，四四傳統市場內也有許多美食可供選擇，若您想找親子餐廳，可洽櫃台索取推薦。</t>
-  </si>
-  <si>
-    <t>您好，關於在地特色飲品，南紡購物中心內有許多店家提供，或許能找到您想要的喔，建議您可以向櫃台人員詢問，他們會更了解當地的特色飲品喔。</t>
-  </si>
-  <si>
-    <t>您好，老爺行旅很榮幸為您推薦！附近有「街役場古蹟餐坊」，距離約1.2公里，是一家結合歷史與美食的餐廳，蜜檸柚香燒豬肋排非常受歡迎。另外，距離約1.8公里的「香港朱記茶水灘」也提供多樣化的港式點心和小炒。若您想品嚐海鮮，建議您前往南紡購物中心內，有許多美食可供選擇。</t>
-  </si>
-  <si>
-    <t>您好，想找健康的果乾嗎？推薦您可以到距離這裡約1.6公里處的吳萬春蜜餞，這裡有近150種蜜餞選擇，有大湖草莓乾、香菇脆片等，深受顧客喜愛。另外，距離約3.3公里處的玉井之門，提供無化學添加的手工果乾，SGS認證，愛文芒果乾、黑糖芒果乾等都是不錯的選擇。還有距離約4.4公里處的陽光菓菓-Sunnygogo dried fruit，這裡的果乾也無添加糖分，適合您喔！</t>
-  </si>
-  <si>
-    <t>您好，台南老爺行旅很樂意為您推薦！附近有章成麥芽餅-安平店（distance_m: 4.1公里），自2000年成立以來，專注於研發Q軟、不黏牙的麥芽餅，推薦原味、黑糖及海苔口味，是必買伴手禮。另外，距離約3.6公里的是蓮圃園蓮產品DIY觀光工廠，提供多樣化的無麵粉米製品，讓您體驗健康美味的在地特產。若您想品嚐古早味糕餅，泰香餅舖水果餅（distance_m: 4.4公里）</t>
-  </si>
-  <si>
-    <t>您好，推薦您到卓仔麵店（distance_m=500），以手工現做的麵條，紅燒牛肉麵或榨菜麵都很清爽，或是到黃家蝦捲（distance_m=1000），酥脆的蝦捲搭配清爽的魚丸脆肉湯，都是不錯的選擇，避開尖峰時段會更舒適喔！</t>
-  </si>
-  <si>
-    <t>您好，台南老爺行旅推薦您到榮興水果店（distance_m: 2300）購買在地特色水果，這裡有70年的歷史，堅持水果品質，提供各式新鮮水果和冰品，絕對是您品嚐台南水果的最佳選擇。另外，您也可以考慮到窄門咖啡館（distance_m: 1800），店內復古懷舊的氛圍，讓您在享受美味的同時，感受時光流轉。</t>
-  </si>
-  <si>
-    <t>您好，這裡有蝦到爆（distance_m: 3.5公里），專注於天然健康的蝦餅，不添加人工香料與色素，口味多樣，深受顧客喜愛。另外，您也可以考慮雲象泰式餐廳（distance_m: 3.7公里），提供道地的泰式料理和月亮蝦餅。Kaluwa 泰式音樂餐廳（distance_m: 4.0公里）也有月亮蝦餅，讓您在音樂中享受美食。</t>
-  </si>
-  <si>
-    <t>您好，這附近推薦您可以去窄門咖啡館，距離約1.8公里，店內有復古懷舊的氛圍，可以拍照打卡，並品嚐窄門特調冰咖啡、起士蛋糕及手工瑪德蓮。另外，您也可以考慮詠純冰品，距離約3.5公里，是台南老字號冰品店，有安平蝦冰等特色冰品。若您想找手工餅乾或伴手禮，建議您前往阿龍杏仁茶，距離約3.6公里，可以品嚐手工熬煮的杏仁茶及杏仁豆腐，搭配油條，非常美味。</t>
-  </si>
-  <si>
-    <t>您好，台南老爺行旅推薦您可以考慮以下幾間店家，距離都約莫5公里左右喔！福樂屋（distance_m:6800）是一家擁有40多年歷史的手工麻糬老店，以有機草莓和紅豆製作的草莓大福非常受歡迎，還有抹茶草莓大福等多種口味。順利餅舖（distance_m:3100）則以赤崁老餅和媽祖平安餅聞名，店內提供試吃和DIY體驗。另外，瓜瓜園地瓜生態故事館（distance_m:3760）也有冰烤地瓜等在地美食，讓您一次</t>
-  </si>
-  <si>
-    <t>您好，台南有幾家不錯的豆花店可以推薦給您喔！距離這裡約2.3公里的是清珠布丁豆花，店慶開幕30年，堅持使用高品質原料，糖用台糖，自來水製作，三色豆花口味豐富，非常受顧客喜愛。另外，距離約2.0公里的泉威布丁豆花，店慶至今已有60年歷史，傳承岳母的豆花製作技藝，也是不錯的選擇。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦！在台南，您可以考慮前往阿霞飯店，距離這裡約3.4公里，招牌的「紅蟳米糕」絕對能滿足您的味蕾，還有「蟹腿肉鮮蝦羹」也十分推薦。另外，東東宴會式場-永大幸福館距離約2.6公里，也有提供米糕選項喔！善化糖廠門市部則距離3.4公里，提供各式冰品，讓您在炎炎夏日也能消暑解渴。</t>
-  </si>
-  <si>
-    <t>您好，南紡購物中心內有許多美食選擇，您可以參考一下，購物中心內有提供各式餐飲服務，您可以依照個人喜好選擇喔。</t>
-  </si>
-  <si>
-    <t>您好，南紡購物中心內有提供多種套餐的複合式餐飲店，您可以到官網查詢詳細資訊喔。</t>
-  </si>
-  <si>
-    <t>您好，想吃肉燒飯或肉燒麵，這裡有幾間推薦喔！吉利排骨麵-新市約44.2公里，老闆娘的排骨麵湯頭濃郁，非常受歡迎。永林綜合料理台南本店則約1.9公里，以新鮮牛肉火鍋聞名，適合聚餐。林媽媽鍋燒意麵約59.6公里，鍋燒意麵搭配半熟蛋和多樣配料，也是不錯的選擇！</t>
-  </si>
-  <si>
-    <t>您好，想找使用傳統工法製作的包子，我們有特別推薦！安平阿水伯手工包子距離這裡約2.3公里，開業九年，傳承至第二代，堅持手工製作，每日新鮮食材，無防腐劑，包子皮經過10小時老麵發酵，招牌蛋黃香菇肉包和黑糖麻糬包非常受歡迎。另外，克林台包距離約4.3公里，是台南老字號包子店，以八寶肉包聞名，口味獨特。</t>
-  </si>
-  <si>
-    <t>您好，當然有！飯店附近有幾家非常棒的咖啡園區，讓您能盡情享受美景與美食。推薦您「景好園咖啡庭園」，距離約40.5公里，提供梅醬烤雞腿、糖漬檸檬塔等美味，還有舒適的咖啡庭園。另外，「烏山咖啡」距離約2.6公里，環境獨特，視野遼闊，推薦您品嚐烏山咖啡及火鍋。還有「大鋤花間」，距離約3.6公里，結合自然美景與有機咖啡，特色菜色包括咖啡果露雞湯火鍋，讓您在山間享受寧靜時光。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦台南美食！距離飯店約1.9公里，永林綜合料理台南本店以新鮮牛肉火鍋聞名，環境舒適適合聚餐（distance_m: 1900）。另外，飯店附近還有約4.6公里的台南蔡虱目魚專賣店，綜合虱目魚湯和虱目魚肚非常受歡迎（distance_m: 4600）。若您喜歡傳統台南小吃，飯店附近約1.1公里的府城食府正宗台南料理，擔仔麵、八寶丸和虱目魚粥都是不錯的選擇（distance_m: 1100</t>
-  </si>
-  <si>
-    <t>您好，歡迎光臨台南老爺行旅！第一次來台南，推薦您嚐嚐附近的美食，距離約500公尺的卓仔麵店，以手工現做麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎，距離約1000公尺的西羅殿牛肉湯也是米其林必比登推薦，主打新鮮溫體牛肉，距離約1公里的是黃家蝦捲，傳承五十年的經典小吃，酥脆蝦捲和魚丸脆肉湯都非常美味。</t>
-  </si>
-  <si>
-    <t>您好，這裡附近有幾家值得推薦的店家，讓您一次滿足！卓仔麵店距離約500公尺，以手工現作麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。另外，楊哥楊嫂肉粽店距離約3.3公里，也是台南老店，狀元粽和小肉粽都非常美味。如果您想品嚐傳統台南碗粿，古都碗粿東門總店距離約3.6公里，碗粿內餡豐富，搭配浮水魚羹和肉燥飯，都是不錯的選擇。</t>
-  </si>
-  <si>
-    <t>您好，歡迎來到台南老爺行旅！想找專賣又口碑不錯的蝦仁飯，我推薦您集品蝦仁飯，距離這裡約3.1公里，以新鮮火燒蝦熬煮柴魚高湯為基底，蝦仁飯口感鮮甜，深受食客喜愛，常常大排長龍，建議提早前往。另外，小公園擔仔麵距離約3.9公里，也是台南必嚐美食。如果您想嘗試更不一樣的口味，西品蝦仁爌肉飯距離約25.3公里，以香脆的炸蝦仁與軟嫩的爌肉結合，也是不錯的選擇。</t>
-  </si>
-  <si>
-    <t>您好，推薦您到街役場古蹟餐坊 (distance_m=1200)，這裡的蜜檸柚香燒豬肋排非常受歡迎，也是在歷史古蹟內品嚐美食的絕佳選擇。另外，距離較遠的香港朱記茶水灘 (distance_m=1800) 也有許多美味的港式點心。若您想品嚐海鮮，建議可以前往南紡購物中心附近尋找。</t>
-  </si>
-  <si>
-    <t>您好，歡迎光臨台南老爺行旅！想吃小籠包或中式小吃，我推薦您到距離這裡約1.1公里處的上海華都小吃，Google評分約4.2顆星。上海華都小吃專注於小炒與小籠包，特別推薦其獨創的松針小籠湯包，口味偏重但用餐環境服務態度良好。營業時間為每日10:50-14:00, 16:50-21:00，建議您尖峰時段提前前往或電話詢問。</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間推薦給您！卓仔麵店距離約500公尺，以每日手工現作的麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。西羅殿牛肉湯則距離約1000公尺，是米其林必比登推薦的台南老字號牛肉湯店，主打新鮮的台灣溫體牛肉。黃家蝦捲距離約1.0公里，以酥脆的蝦捲和魚丸脆肉湯聞名，是台南經典小吃。</t>
-  </si>
-  <si>
-    <t>您好，推薦您到距離這裡約1.8公里窄門咖啡館，這家店成立於1991年，入口僅38公分，充滿復古懷舊氛圍，非常適合拍照打卡，推薦品嚐窄門特調冰咖啡或起士蛋糕。另外，距離約1.2公里的街役場古蹟餐坊，也是一個充滿歷史氛圍的選擇，可以品嚐蜜檸柚香燒豬肋排。如果您想品嚐傳統豆花，則距離約2公里，泉威布丁豆花是您不錯的選擇，營業時間為星期一至五08:00-17:00，星期六</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間推薦給您，讓您在台南老爺行旅享受悠閒時光！距離這裡約1.8公里的是窄門咖啡館，它成立於1991年，入口僅38公分，充滿復古懷舊氛圍，適合拍照打卡，推薦品項有窄門特調冰咖啡和起士蛋糕。另外，距離約2公里的是泉威布丁豆花，店內有60年的歷史，傳承岳母的豆花製作技藝，口味多樣，讓您品嚐到道地的台灣風味。</t>
-  </si>
-  <si>
-    <t>您好，歡迎光臨台南老爺行旅！想找有現泡咖啡，搭配三明治的店，我推薦您到距離這裡約1.8公里，窄門咖啡館，店內有提供窄門特調冰咖啡，還有美味的起士蛋糕和手工瑪德蓮，非常適合拍照打卡，感受時光流轉。另外，距離這裡約1.2公里的街役場古蹟餐坊，也有提供咖啡，搭配蜜檸柚香燒豬肋排，絕對是您在台南的美味體驗。還有距離這裡約2公里，泉威布丁豆花，可以品嚐到傳統豆花，讓您一整天都充滿</t>
-  </si>
-  <si>
-    <t>您好，這裡有幾間適合坐下來享用多種飲品和餐點的咖啡店推薦喔！距離這裡約1.8公里的是窄門咖啡館，它自1991年開業，以38公分寬的獨特入口和復古懷舊氛圍吸引顧客，推薦窄門特調冰咖啡、起士蛋糕及手工瑪德蓮，讓您享受時光。另外，距離約2公里的是泉威布丁豆花，店內有著60年的歷史，傳承岳母的豆花製作技藝，口味多樣，非常值得一試。距離約1.2公里的街役場古蹟餐坊，也有</t>
-  </si>
-  <si>
-    <t>您好，想吃類似蛋仔麵的傳統小吃，這裡有幾間推薦喔！蚵寮阿滿熱炒店距離約16.3公里，以招牌蚵仔煎聞名，使用甘藷粉漿搭配新鮮蚵仔，非常美味。小公園擔仔麵距離約3.9公里，湯頭鮮甜，肉燥香氣四溢，是台南的代表小吃。另外，台南度小月擔仔麵原始店本舖距離約4.0公里，也是不錯的選擇。</t>
-  </si>
-  <si>
-    <t>您好，除了江川肉燥飯（距離_m：3.4公里）這間超過七成的台南老店，我們也推薦您嚐嚐附近的「老忠記」（距離_m：4.2公里），也是台南肉食老店，以紅燒肉聞名，口味鹹甜適中，價格親民，提供內用及外賣便當，營業時間為週一至週日07:30-15:30。</t>
-  </si>
-  <si>
-    <t>您好，第一次來台南想吃鎖魚店，推薦您可以考慮台南蔡虱目魚專賣店，距離約4.6公里，提供綜合虱目魚湯和虱目魚肚，環境寬敞舒適喔！另外，饗食天堂(台南西門店)距離約3.3公里，以自助餐聞名，有草蝦天婦羅等美味菜色。如果喜歡傳統小吃，泉成點心店距離約21.2公里，以炸物聞名，營業時間是週一至週日07:30–13:30。</t>
-  </si>
-  <si>
-    <t>您好，台南的確有許多美味的傳統小吃！距離這裡約2.5公里的是鬍鬚豬頭飯，以分明肉香的豬頭飯和香腸聞名，價格實惠，非常適合想品嚐台南風味的您。另外，距離這裡約1.1公里的是府城食府正宗台南料理，擔仔麵、八寶丸和虱目魚粥都是台南必嚐的經典小吃，讓您重溫古早台灣味喔！</t>
-  </si>
-  <si>
-    <t>您好，想品嚐台南經典米食，我推薦您到距離這裡約3.4公里處的友誠蝦仁肉圓，這家店已經經營超過七十年的老店，以手工製作的蝦仁肉圓聞名，外皮軟Q，內餡使用新鮮火燒蝦，搭配獨特醬汁，非常美味。店內環境舒適，服務親切，是品嚐傳統台南美食的理想之地。另外，您也可以考慮一下附近約3.4公里處的虱目魚丸湯，湯頭鮮甜，料多味美。您也可以在南紡購物中心內找到便利商店。</t>
-  </si>
-  <si>
-    <t>您好，台南美食推薦您絕對不能錯過！卓仔麵店距離這裡約500公尺，以手工現做麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。另外，西羅殿牛肉湯距離約1000公尺，是米其林必比登推薦的台南老字號牛肉湯店，主打新鮮溫體牛肉，湯頭鮮美。如果想吃點不一樣的，黃家蝦捲距離約1公里，傳承五十年的經典蝦捲和魚丸脆肉湯，也是非常推薦的選擇！</t>
-  </si>
-  <si>
-    <t>您好，想找有懷舊氛圍的特色店家，推薦您到府城食府（距離約1.1公里），這裡的台南料理重現古早台灣味，擔仔麵、八寶丸、虱目魚粥都是必嚐的美味。另外，寶來香餅鋪（距離約3.7公里）也是不錯的選擇，百年老店的香餅和蒜茸枝，充滿懷舊風味。若您想體驗更獨特的氛圍，舊振南台南旗艦店（距離約7.9公里）也值得一試，結合東方餅藝文化與五感體驗。</t>
-  </si>
-  <si>
-    <t>您好，想品嚐道地的米食和傳統湯品，我推薦您前往西羅殿牛肉湯，約1000公尺，是一家米其林必比登推薦的台南老字號牛肉湯店，主打新鮮的台灣溫體牛肉與自製強力椒，湯頭鮮美，深受食客喜愛。另外，您也可以考慮尚品咖啡-台南南門店，約3.1公里，以其砂鍋魚頭和梅子雞火鍋聞名。轉角餐廳 Corner Steak House，約3.2公里，則以碳烤牛排聞名，是商務人士和美食愛好者的聚集地。</t>
-  </si>
-  <si>
-    <t>您好，台南老爺行旅誠摯推薦您到阿霞飯店品嚐，距離這裡約3.4公里，是歷史悠久的台南老字號餐廳，招牌菜「紅蟳米糕」非常受歡迎，絕對能滿足您的味蕾！另外，善化糖廠門市部距離約3.4公里，以多樣化的冰品聞名，紅豆牛奶冰和核桃系列冰品都是必嚐！若您想品嚐滷麵或傳統米糕，建議您到東東宴會式場-永大幸福館，距離約2.6公里，這裡也提供精緻的餐點。</t>
-  </si>
-  <si>
-    <t>您好，附近有間非常受歡迎的永樂燒肉飯，距離這裡約3.2公里，距離非常方便喔！這家店是台南老字號，從1995年開始營業，以獨特的燒肉飯聞名，售價只要65元，包含清爽的生菜沙拉和味噌湯，非常健康美味，而且常常有長長的排隊人潮，是您來台南必嚐的美食之一。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦台南米糕！阿霞飯店距離這裡約3.4公里，是歷史悠久的台南老字號，招牌的紅蟳米糕非常受歡迎，還有蟹腿肉鮮蝦羹，絕對能滿足您的味蕾。另外，東東宴會式場-永大幸福館距離約2.6公里，也有提供精緻的米糕選項。善化糖廠門市部距離約3.4公里，以紅豆牛奶冰等冰品聞名，也是不錯的選擇。</t>
-  </si>
-  <si>
-    <t>您好，台南的虱目魚料理非常有名，這裡推薦幾間距離老爺行旅不遠的店家，讓您一次滿足！距離約4.6公里的是台南蔡虱目魚專賣店，提供綜合虱目魚湯與虱目魚肚，環境寬敞舒適。距離約1.1公里的府城食府則以擔仔麵、八寶丸及虱目魚粥聞名，適合家庭聚餐。另外，距離約65.1公里的林記虱目魚小吃店，以「一魚三吃」體驗深受顧客喜愛，口味獨特！</t>
-  </si>
-  <si>
-    <t>您好，台南有許多特色肉店，非常推薦您到西羅殿牛肉湯（距離約1000公尺），這是一家米其林必比登推薦的台南老字號牛肉湯店，主打新鮮的台灣溫體牛肉與自製強力椒，湯頭鮮美，深受食客喜愛。另外，品味軒食品行（距離約4.5公里）也是不錯的選擇，堅持手工製作肉鬆，口味適合南部人。如果您想購買肉脯伴手禮，義珍肉脯舖（距離約3.7公里）也很值得推薦。</t>
+    <t>附近店家資訊不足，建議您洽詢櫃檯協助。</t>
+  </si>
+  <si>
+    <t>我想常常當地的傳統小吃有沒有值得推薦的產廳。</t>
+  </si>
+  <si>
+    <t>附近有「古都碗粿 東門總店」地址：701台灣台南市東區東門路二段306號，營業至下午晚些時候，您可以嚐到獨特的碗粿滋味。</t>
+  </si>
+  <si>
+    <t>附近義珍肉脯舖約292公尺，是台南老爺行旅推薦的傳統肉乾店家喔！</t>
+  </si>
+  <si>
+    <t>推薦您嚐嚐「老爺台菜餐廳」，這裡的麵食料理非常道地，絕對能滿足您的味蕾！</t>
+  </si>
+  <si>
+    <t>推薦品香肉粽，距離您不遠，口味多樣，讓您一次滿足多種肉粽的想像！</t>
+  </si>
+  <si>
+    <t>請問有推薦可以吃到有特色玩果和豆仔湯的餐廳嗎?</t>
+  </si>
+  <si>
+    <t>您好，推薦您前往小西腳碗粿，這裡的豆仔湯和特色碗粿非常受歡迎，距離這裡約3.9公里喔！</t>
+  </si>
+  <si>
+    <t>我想找可以品嘗到道地意麵的餐廳 有推薦嗎?</t>
+  </si>
+  <si>
+    <t>附近阿銘鱔魚意麵評價不錯，約步行兩十分鐘可抵達，是品嚐道地意麵的好選擇。</t>
+  </si>
+  <si>
+    <t>再發號肉粽評分較高，是許多饕客推薦的選擇。</t>
+  </si>
+  <si>
+    <t>附近有「東悅坊」，地址在永康區，提供精緻甜點，內用環境舒適，評分高喔！</t>
+  </si>
+  <si>
+    <t>推薦您景好園咖啡庭園，約39.3公里，邊享用美食，同時也能欣賞美麗的風景喔！</t>
+  </si>
+  <si>
+    <t>附近推薦赤崁糖原糖概念館，這裡有各式各樣的糖果和冰品，讓您滿足甜食慾望喔！</t>
+  </si>
+  <si>
+    <t>附近的美食中，趙家臘味營業至下午八點，提供傳統的臘味料理，或許能滿足您的需求。</t>
+  </si>
+  <si>
+    <t>請問鹽水區哪裡可以吃到道地的義麵或小吃?</t>
+  </si>
+  <si>
+    <t>鹽水區顏清安鹽水意麵，評價很高，是品嚐道地義麵的絕佳選擇喔！</t>
+  </si>
+  <si>
+    <t>舊來發餅舖是您品嚐傳統糕餅，尤其是水果餅的最佳選擇，距離我們約3.4公里喔！</t>
+  </si>
+  <si>
+    <t>您好，可洽櫃台索取推薦，附近有寶來香餅鋪，是老爺行旅的絕佳選擇！</t>
+  </si>
+  <si>
+    <t>我想常常當地有名的包子有沒有可以推薦的店家</t>
+  </si>
+  <si>
+    <t>附近有克林台包，地址在府前路一段218號，營業時間多達 7 天，是您常吃的美味選擇！</t>
+  </si>
+  <si>
+    <t>當然可以！老爺行旅附近有許多受歡迎的傳統餅舖，您可以考慮舊來發餅舖，或是寶來香餅鋪，都非常值得一試。</t>
+  </si>
+  <si>
+    <t>推薦您嚐嚐「轉角餐廳 Corner Steak House」，約1.37公里，提供多樣紅茶，讓您品嚐獨特滋味。</t>
+  </si>
+  <si>
+    <t>請問哪裡可以買到道地的古早味冰棒?</t>
+  </si>
+  <si>
+    <t>順天冰棒地址：700台灣台南市中西區開山路151巷7之1號，距離這裡約2.56公里，是您品嚐道地古早味冰棒的絕佳選擇。</t>
+  </si>
+  <si>
+    <t>請問在台南有哪裡可以吃到蝦仁肉圓?</t>
+  </si>
+  <si>
+    <t>附近有友誠蝦仁肉圓，地址在台南市中西區開山路118號，營業時間至星期天下午7點30分。</t>
+  </si>
+  <si>
+    <t>附近有「府城食府正宗台南料理」，提供道地的台南風味，約6公里，值得一試！</t>
+  </si>
+  <si>
+    <t>可以推薦一家在地人喜愛的米糕或跟湯店嗎?</t>
+  </si>
+  <si>
+    <t># 億哥牛肉湯後甲店（南紡）地址：701台灣台南市東區裕農路574號營業：星期日: 休; 星期一: 休; 星期二: 休; 星期三: 休; 星期四: 休; 星期五: 休; 星期六: 休評分：4.0（11029則）內用：True｜外送：False｜價位：PRICE_LEVEL_MODERATE距離：約 207 公尺</t>
+  </si>
+  <si>
+    <t>附近有沒有餐廳賣燒牌砂鍋鴨?</t>
+  </si>
+  <si>
+    <t>附近有華味香鴨肉羹新進店，約35.5公里，您可以嚐嚐美味的砂鍋鴨喔！</t>
+  </si>
+  <si>
+    <t>請問哪裡可以吃到好吃的傳統甜品?有推薦的店嗎?</t>
+  </si>
+  <si>
+    <t>您好，推薦您到慶中街郭家綠豆湯，約莫2.97公里處，是台南老爺行旅的摯推薦！</t>
+  </si>
+  <si>
+    <t>我在台南玩的時候 哪裡可以吃到好吃的手工甜品</t>
+  </si>
+  <si>
+    <t>您可以在距離這裡約 3 公里外的慶中街郭家綠豆湯品嚐道地的台南綠豆湯，絕對讓您滿意！</t>
+  </si>
+  <si>
+    <t>請問哪裡可以找到當天現做的滷味店?</t>
+  </si>
+  <si>
+    <t>附近有「第三代虱目魚丸」，營業至下午兩點，提供您熱騰騰的虱目魚丸，是當天現做的美味選擇。</t>
+  </si>
+  <si>
+    <t>來談談旅遊有沒有推薦的 義麵或鱔魚餐廳可以去吃看看。</t>
+  </si>
+  <si>
+    <t>附近推薦您嚐嚐鱔魚的「進福炒鱔魚專家」，約2.4公里，是當地人推薦的美味選擇。</t>
+  </si>
+  <si>
+    <t>附近有「三股海鮮麵」，約19.5公里，是當地人推薦的美味海鮮麵店喔！</t>
+  </si>
+  <si>
+    <t>請問有沒有推薦可以品嘗到天然特色甜點的店家?</t>
+  </si>
+  <si>
+    <t>附近有# 轉角餐廳 Corner Steak House，這裡有精緻甜點，您可以嚐到獨特風味。</t>
+  </si>
+  <si>
+    <t>推薦您到阿龍杏仁茶，約1.0公里，品嚐新鮮水果製成的甜點，絕對是您在台南老爺行旅的美味選擇！</t>
+  </si>
+  <si>
+    <t>請問在這附近哪裡可以買到米漬或鹽子相關的伴手禮或小吃?</t>
+  </si>
+  <si>
+    <t>饗食天堂(台南西門店)提供各式米漬及鹽子相關的小吃，距離您這裡約3.6公里，非常方便！</t>
+  </si>
+  <si>
+    <t>千香麥香雞專賣店地址：701台灣台南市東區東安路217號，距離我們約895公尺，您可以品嚐到獨具風味的雞蛋產品喔！</t>
+  </si>
+  <si>
+    <t>這裡附近有轉角餐廳 Corner Steak House，約1.4公里，提供美味的餐點與用餐體驗。</t>
+  </si>
+  <si>
+    <t>請問在當地有什麼以米產品為主的特色店家值得推薦嗎?</t>
+  </si>
+  <si>
+    <t>附近值得推薦的以米產品為主的特色店家是「舊振南台南旗艦店」，他們以米製品聞名，絕對能滿足您的味蕾。</t>
+  </si>
+  <si>
+    <t>您好，推薦您前往「寶來香餅鋪」，距離這裡約3.7公里，是台南老爺行旅的摯推薦！</t>
+  </si>
+  <si>
+    <t>附近有古都碗粿 東門總店，是台南在地老店，您可以嚐嚐獨具風味的碗粿喔！</t>
+  </si>
+  <si>
+    <t>推薦您前往#明新食品總店，約1.2公里處，這裡有許多美味的手工點心喔！</t>
+  </si>
+  <si>
+    <t>附近有台南市場，這裡有許多在地特色零食，例如：肉圓、蝦捲、棺材板等，都是台南必吃美食喔！</t>
+  </si>
+  <si>
+    <t>可以推薦幾家在地口碑好又經營已久的水果店讓我去逛逛嗎?</t>
+  </si>
+  <si>
+    <t>當然，老爺行旅推薦您到台南市區逛逛，有「永康水果行」及「順興水果行」，兩家都經營已久，水果品質優良喔！</t>
+  </si>
+  <si>
+    <t>我來這裡旅遊香皂機家有特色的鹹粥餐廳可以推薦嗎?</t>
+  </si>
+  <si>
+    <t>附近阿憨鹹粥以其獨特風味，是您體驗台南在地風味的絕佳選擇。</t>
+  </si>
+  <si>
+    <t>請問在台南還有哪些百年老字號的小吃點可以推薦嗎?</t>
+  </si>
+  <si>
+    <t>台南有許多百年老字號的小吃點，您可以參考以下幾家：</t>
+  </si>
+  <si>
+    <t>請問這附近有推薦的特色小吃點嗎?</t>
+  </si>
+  <si>
+    <t>這附近的小公園擔仔麵非常受歡迎，口味獨特，距離您不遠喔！</t>
+  </si>
+  <si>
+    <t>請問這附近有哪幾家專賣米糕的傳統小吃店可以推薦給我嗎?</t>
+  </si>
+  <si>
+    <t>附近有「落成米糕」，是台南米糕的代表店家，口味地道，值得一試。</t>
+  </si>
+  <si>
+    <t>我在台南旅遊 香皂 適合全家聚餐的魚碗餐廳可以推薦嗎?</t>
+  </si>
+  <si>
+    <t>您好，推薦您嚐嚐「台南蔡虱目魚專賣店」，距離這裡約 3.4 公里，適合全家大小一同享用！</t>
+  </si>
+  <si>
+    <t>我來台南香召繞字號的西點專賣蛋糕或麵包有推薦的嗎?</t>
+  </si>
+  <si>
+    <t>附近有「香召繞字號」這間店家，提供各式精緻蛋糕和麵包，您可以前往嚐嚐看。</t>
+  </si>
+  <si>
+    <t>在台南，您可以到「舊振南台南旗艦店」嚐到許多像花生冷湯這種古早味糖品喔！</t>
+  </si>
+  <si>
+    <t>我可以去哪裡買到台灣特產蜜餞</t>
+  </si>
+  <si>
+    <t>美勝珍蜜餞，約3.7公里，是您品嚐台灣蜜餞的絕佳選擇！</t>
+  </si>
+  <si>
+    <t>請問有推薦的手工餅鋪可以買到好吃的肉包和糕點嗎?</t>
+  </si>
+  <si>
+    <t>您好，附近有明新食品總店，他們有販售美味的肉包和糕點喔，距離這裡約1.2公里，非常方便！</t>
+  </si>
+  <si>
+    <t>請問有哪裡可以買到像黑糖香餅這種傳統特色糕點嗎?</t>
+  </si>
+  <si>
+    <t>舊來發餅舖地址：704台灣台南市北區自強街17號1樓，距離您約3.4公里，是品嚐傳統黑糖香餅的絕佳選擇。</t>
+  </si>
+  <si>
+    <t>可洽櫃台索取推薦，台南老爺行旅會竭誠為您服務。</t>
+  </si>
+  <si>
+    <t>冬瓜茶的店有義豐冬瓜茶，約3.2公里，是附近評價不錯的選擇喔！</t>
+  </si>
+  <si>
+    <t>到台南哪裡可以品嘗到百年老爺的蜜餡?</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法回答此問題，建議洽詢櫃檯人員。</t>
+  </si>
+  <si>
+    <t>不好意思 請問這附近哪裡可以買到限量的傳統糕點呢?</t>
+  </si>
+  <si>
+    <t>您好，寶來香餅鋪是附近販售限量傳統糕點的最佳選擇，約3.67公里處，值得一試！</t>
+  </si>
+  <si>
+    <t>我是觀光客 想找有歷史的茶行 要去哪裡比較好呢?</t>
+  </si>
+  <si>
+    <t>您好，想找有歷史的茶行，我推薦您前往金德春老茶莊，約3.4公里處，是台南老茶行中的佳績店家喔！</t>
+  </si>
+  <si>
+    <t>請問台南有沒有像樣的老字號茶莊可以去體驗傳統茶文化的地方呢?</t>
+  </si>
+  <si>
+    <t>推薦您前往文峰茶莊，地址在民權路二段36之1號，營業時間至晚間9點，是體驗傳統茶文化的好去處。</t>
+  </si>
+  <si>
+    <t>請問在台南有沒有其他老字號的茶莊可以推薦我去參觀呢?</t>
+  </si>
+  <si>
+    <t>鄰近的金德春老茶莊，地址在台南市中西區新美街109號，營業時間至星期日中午12點為止，是個值得您前往參觀的老字號茶莊。</t>
+  </si>
+  <si>
+    <t>在台南有沒有結合傳統建築又能平常在第一小時的好去處呢?</t>
+  </si>
+  <si>
+    <t>您好，南紡購物中心內有結合傳統建築的區域，您可以順便逛街購物。</t>
+  </si>
+  <si>
+    <t>我想常常有名的蝦仁飯請問在台南還有哪些地方可以找到類似的美食呢?</t>
+  </si>
+  <si>
+    <t>您好，想尋找常常有名的蝦仁飯，推薦您到「矮仔成蝦仁飯」附近覓食，距離不遠，您可以參考看看。</t>
+  </si>
+  <si>
+    <t>我想在台南試試傳統肉粽 還有其他人 氣墊家 可以推薦嗎?</t>
+  </si>
+  <si>
+    <t>您好，台南的傳統肉粽選擇非常多樣，推薦您品嚐「品香肉粽」，距離這裡約1.7公里，是個不錯的選擇。</t>
+  </si>
+  <si>
+    <t>我在旅行想找能深金池殼的在地特色飲品有推薦嗎?</t>
+  </si>
+  <si>
+    <t>附近有「延齡堂-高粱酸白菜火鍋」，以新鮮海鮮為特色，約步行 2.44 公里。</t>
+  </si>
+  <si>
+    <t>附近有臺南府城 吳萬春蜜餞，約 3.16 公里，提供各式各樣的果乾選擇。</t>
+  </si>
+  <si>
+    <t>台南的麥芽糖以其香甜酥脆的口感聞名，您可以到「老忠記」尋找獨具風味的麥芽糖，距離這裡約 2.7 公里。</t>
+  </si>
+  <si>
+    <t>附近有明新食品-東寧二店，他們家的脆皮小吃評價不錯，適合喜歡清爽口感的您。</t>
+  </si>
+  <si>
+    <t>您好，台南有許多在地特色水果，推薦您可選擇紅心好果、番茄玫瑰、以及香答答，都是非常受歡迎的選擇！</t>
+  </si>
+  <si>
+    <t>請問除了這裡還有其他地方可以買到健康的蝦餅嗎?</t>
+  </si>
+  <si>
+    <t>您好，除了這裡，您可以到永康區的「老忠記」購買到傳統風味的蝦餅，約步行15分鐘左右。</t>
+  </si>
+  <si>
+    <t>請問這附近還有哪裡可以買到手工餅乾或伴手林嗎?</t>
+  </si>
+  <si>
+    <t>您好，附近有「明新食品總店」提供各式麵食及點心，或許能找到您想要的伴手禮喔！</t>
+  </si>
+  <si>
+    <t>請問在哪裡可以找到口感很好的麻術和大福嗎?</t>
+  </si>
+  <si>
+    <t>您好，附近的水缸豆花非常受歡迎，約1.48公里處，是您品嚐滑嫩豆花的好選擇！</t>
+  </si>
+  <si>
+    <t>我在旅途中想吃口感獨特的米糕,可以推薦哪間餐廳嗎?</t>
+  </si>
+  <si>
+    <t>附近落成米糕的米糕口味獨特，距離您約 3 公里，值得一試。</t>
+  </si>
+  <si>
+    <t>請問哪裡有提供套餐的 複合式餐飲店可以推薦嗎?</t>
+  </si>
+  <si>
+    <t>官網與現場皆可查詢，我們飯店周邊有多家複合式餐飲店提供套餐。</t>
+  </si>
+  <si>
+    <t>我正在找評價又好吃的肉燥飯或肉燥麵 可以去哪裡吃嗎?</t>
+  </si>
+  <si>
+    <t>附近億哥牛肉湯後甲店（南紡）評價不錯，肉燥湯頭鮮美，是您不錯的選擇喔！</t>
+  </si>
+  <si>
+    <t># 克林台包地址：70046台灣台南市中西區府前路一段218號營業：星期日: 09:00-20:00; 星期一: 09:00-20:00; 星期二: 09:00-20:00; 星期三: 09:00-20:00; 星期四: 09:00-20:00; 星期五: 09:00-20:00; 星期六: 09:00-20:00</t>
+  </si>
+  <si>
+    <t>推薦您前往景好園咖啡庭園，地址在台南市楠西區香蕉山28之3，您可以邊品嚐咖啡，邊欣賞美麗的園區景色，享受美食。</t>
+  </si>
+  <si>
+    <t>我在台南旅遊想找以善於料理為主的小吃店有推薦嗎?</t>
+  </si>
+  <si>
+    <t>附近有許多以料理出色的小吃店，推薦您嚐嚐「明新食品-東寧二店」，約320公尺，提供各式麵食，口味豐富，絕對讓您滿意！</t>
+  </si>
+  <si>
+    <t>我第一次來台南 請問哪裡有便宜又好吃的小吃可以推薦?</t>
+  </si>
+  <si>
+    <t>台南有許多便宜又好吃的選擇！您可以到大東夜市或大東東夜市，這裡有許多在地小吃，像是擔仔麵、棺材板、海豐布袋戲等等，都是不錯的選擇喔！</t>
+  </si>
+  <si>
+    <t>阿銘鱔魚意麵距離這裡約 2.3 公里，提供獨特的鱔魚意麵，是附近美食小吃的好選擇。</t>
+  </si>
+  <si>
+    <t>推薦您嚐嚐「小公園擔仔麵」，距離這裡約 3.5 公里，是當地人推薦的蝦仁飯專賣店喔！</t>
+  </si>
+  <si>
+    <t>附近有「延齡堂-高粱酸白菜火鍋」，地址在台南市北區富北街50號，營業時間在下午三點左右開始，您可以品嚐到美味的火鍋喔！</t>
+  </si>
+  <si>
+    <t>附近的大東夜市有許多攤販販售美味的小籠包及各式中式小吃，您可以順便逛逛夜市，品嚐到各式各樣的美味喔！</t>
+  </si>
+  <si>
+    <t>請問有沒有推薦可以吃到新鮮自製料理又有自助餐的餐體嗎?</t>
+  </si>
+  <si>
+    <t>附近有南紡購物中心內的「明新食品-東寧二店」，提供各式自助餐，讓您滿足食慾！</t>
+  </si>
+  <si>
+    <t>請問在台南哪裡有風格獨特又氛圍舒適的咖啡店可以推薦的嗎?</t>
+  </si>
+  <si>
+    <t>推薦您「回甘咖啡」，地址在台南市東區大學路22巷1號，營業時間為上午10點至下午6點，環境充滿文藝氣息，非常適合放鬆享受下午茶時光。</t>
+  </si>
+  <si>
+    <t>我在旅行想找一家能讓我放鬆又能品嘗特色飲品的咖啡館。請問有推薦的嗎?</t>
+  </si>
+  <si>
+    <t>推薦您可至轉角餐廳 Corner Steak House，距離這裡約 1.37 公里，提供美味餐點與輕鬆的氛圍。</t>
+  </si>
+  <si>
+    <t>推薦您「回甘咖啡」，距離這裡約 1.3 公里，提供現 brewed 咖啡，搭配美味的三明治，讓您享受悠閒時光。</t>
+  </si>
+  <si>
+    <t>推薦您千香麥香雞專賣店，約895公尺轉角餐廳，提供多種飲品和餐點，讓您輕鬆享受午茶時光。</t>
+  </si>
+  <si>
+    <t>請問在台灣想吃橡蛋仔麵的傳統小吃可以去哪裡?</t>
+  </si>
+  <si>
+    <t>位於台南市區，交通便利。</t>
+  </si>
+  <si>
+    <t>除了江川肉燥飯之外，您也可以去「台南蔡虱目魚專賣店」嚐到美味的肉燥飯。</t>
+  </si>
+  <si>
+    <t>我第一次來台南想找好吃的炸魚店可以推薦幾家嗎?</t>
+  </si>
+  <si>
+    <t>附近有「3皇3家 中華東店」，約730公尺，是台南老爺行旅附近評價不錯的炸魚店喔！</t>
+  </si>
+  <si>
+    <t>在台南有沒有像香腸和冷食這類的傳統小吃可以推薦的地方嗎?</t>
+  </si>
+  <si>
+    <t>附近有趙家臘味，是台南傳統臘味小吃的名店喔！</t>
+  </si>
+  <si>
+    <t>我到台南想吃晚貴那種經典米食 有什麼推薦的嗎?</t>
+  </si>
+  <si>
+    <t>您好，推薦您嚐嚐附近的老爺行旅旁「友誠蝦仁肉圓」，約2.7公里，是台南經典米食的好選擇！</t>
+  </si>
+  <si>
+    <t>請問來台南有沒有推薦的 有名羹類料理或熱門吃的地方可以介紹?</t>
+  </si>
+  <si>
+    <t>台南的羹類料理非常有名，推薦您到「阿妮醬羹湯」用餐，距離這裡約 350 公尺，是台南老爺行旅的熱門推薦喔！</t>
+  </si>
+  <si>
+    <t>您好，推薦您前往「寶來香餅鋪」，約3.7公里處，這裡有著懷舊的台南風味，您可以品嚐到各式各樣的特色餅品，感受濃厚的歷史氛圍喔！</t>
+  </si>
+  <si>
+    <t>我到台南想吃道地的米食和傳統湯品 有什麼推薦的店家嗎?</t>
+  </si>
+  <si>
+    <t>推薦您嚐嚐「崇德牛肉湯」，距離這裡約1.85公里，是台南道地的牛肉湯名店喔！</t>
+  </si>
+  <si>
+    <t>附近的小南米糕，約2.3公里，是台南老爺行旅的熱門推薦！</t>
+  </si>
+  <si>
+    <t>附近有永樂燒肉飯，約3.6公里，是台南必吃美食，口味獨特，非常受歡迎！</t>
+  </si>
+  <si>
+    <t>請問在台南有米其林推薦的店家嗎?特別是麥米高的</t>
+  </si>
+  <si>
+    <t>抱歉，目前沒有在台南有米其林推薦的店家，特別是麥米高的。</t>
+  </si>
+  <si>
+    <t>我來台南旅行 想請問哪裡可以吃到當地受歡迎的私牧魚料理?</t>
+  </si>
+  <si>
+    <t>您好，推薦您前往「田媽媽長盈海味屋」，約30.4公里處，是台南當地受歡迎的海味餐廳，您可以品嚐到新鮮美味的私牧魚料理。</t>
+  </si>
+  <si>
+    <t>請問哪裡的肉圓比較特別或有特色值得我去嘗嘗的嗎?</t>
+  </si>
+  <si>
+    <t>附近有台南武廟肉圓，以其獨特的廟方配方和傳統做法，是您品嚐台南特色肉圓的絕佳選擇。</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1409,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1707,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1734,1400 +1721,1400 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="C22" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="C31" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="C36" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C40" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="C42" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="C43" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="C45" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C47" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C48" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C52" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="C53" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="C55" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="C56" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="C57" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="C58" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="C59" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="C60" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="C61" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="C62" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="C63" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C67" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="C68" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="C69" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="C70" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C71" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>174</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C73" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="C75" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>178</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>179</v>
       </c>
       <c r="B77" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>180</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="C78" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>281</v>
+        <v>364</v>
       </c>
       <c r="C79" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>182</v>
       </c>
       <c r="B80" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C80" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="C81" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>185</v>
       </c>
       <c r="B83" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="C84" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>187</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="C85" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="C86" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="C87" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>191</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>378</v>
       </c>
       <c r="C89" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>193</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="C91" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>194</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="C92" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>196</v>
       </c>
       <c r="B94" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="C94" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>197</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="C95" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>198</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="C96" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>199</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="C97" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="C99" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>202</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>396</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>29</v>
